--- a/Gas and Electric calculation.xlsx
+++ b/Gas and Electric calculation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\OneDrive\Documentos\Code like a bosch\CodelikeaBosch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9CDAB4-8356-4913-ACC8-955D66286A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5235716F-1055-4EAF-B054-A610B0ECB0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{644E4297-9CE8-4CF8-AC87-80C5D670008D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Gas Consumption (m^3/h)</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Heat loss</t>
   </si>
   <si>
-    <t>Expected Avarege Temp (°C)</t>
-  </si>
-  <si>
-    <t>Day Avarege Temp (°C)</t>
-  </si>
-  <si>
     <t>Gas Cons. Per day (m^3)</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>Solution: Price avarege in Eu per day (€)</t>
+  </si>
+  <si>
+    <t>Expected Average Temp (°C)</t>
+  </si>
+  <si>
+    <t>Day Average Temp (°C)</t>
   </si>
 </sst>
 </file>
@@ -165,16 +165,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -506,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1C310E-F3FF-4DAC-BEBE-0F3CA98BB2CA}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P1" sqref="N1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,20 +526,21 @@
     <col min="13" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -554,34 +552,37 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>19</v>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>(B2/(C2/100*D2))</f>
         <v>1.1559907520739834</v>
       </c>
       <c r="B2" s="2">
-        <f>((E2*G2*F2)/860)</f>
+        <f t="shared" ref="B2:B18" si="0">((E2*G2*F2)/860)</f>
         <v>9.8837209302325579</v>
       </c>
       <c r="C2" s="2">
@@ -606,16 +607,16 @@
       <c r="I2" s="2">
         <v>-12</v>
       </c>
-      <c r="J2" s="8">
-        <f>(A2*24)</f>
+      <c r="J2" s="7">
+        <f t="shared" ref="J2:J18" si="1">(A2*24)</f>
         <v>27.743778049775599</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <f>(0.7*J3+0.3*J2)</f>
         <v>23.745410036719704</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M2" s="3">
         <f>J2*1.02264*40/3.6</f>
@@ -629,14 +630,18 @@
         <f>0.0782*N2</f>
         <v>21.099234206446347</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="5">
+        <f>(1 - O2/O7)*100</f>
+        <v>14.411764705882346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>(B3/(C3/100*D3))</f>
         <v>0.91799265605875147</v>
       </c>
       <c r="B3" s="2">
-        <f>((E3*G3*F3)/860)</f>
+        <f t="shared" si="0"/>
         <v>7.8488372093023253</v>
       </c>
       <c r="C3" s="2">
@@ -652,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G18" si="0">(H3-(I3))</f>
+        <f t="shared" ref="G3:G18" si="2">(H3-(I3))</f>
         <v>27</v>
       </c>
       <c r="H3" s="2">
@@ -661,19 +666,19 @@
       <c r="I3" s="2">
         <v>-12</v>
       </c>
-      <c r="J3" s="8">
-        <f>(A3*24)</f>
+      <c r="J3" s="7">
+        <f t="shared" si="1"/>
         <v>22.031823745410037</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f>(0.6*J3+0.4*J2)</f>
         <v>24.316605467156261</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M18" si="1">J3*1.02264*40/3.6</f>
+        <f t="shared" ref="M3:M18" si="3">J3*1.02264*40/3.6</f>
         <v>250.34026927784575</v>
       </c>
       <c r="N3" s="3">
@@ -684,14 +689,18 @@
         <f>0.0782*N3</f>
         <v>21.606775922752618</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="5">
+        <f>(1 - O3/O7)*100</f>
+        <v>12.352941176470578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A3:A18" si="2">(B4/(C4/100*D4))</f>
+        <f t="shared" ref="A4:A18" si="4">(B4/(C4/100*D4))</f>
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <f>((E4*G4*F4)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4" s="2">
@@ -707,24 +716,24 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="8">
-        <f>(A4*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
         <f>(0.46*J3+0.54*J2)</f>
         <v>25.116279069767444</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N4" s="3">
@@ -735,14 +744,18 @@
         <f>0.0782*N4</f>
         <v>22.317334325581395</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="5">
+        <f>(1 - O4/O7)*100</f>
+        <v>9.4705882352941089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <f>((E5*G5*F5)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" s="2">
@@ -758,30 +771,30 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="8">
-        <f>(A5*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="8"/>
+      <c r="J5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7"/>
       <c r="M5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <f>((E6*G6*F6)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6" s="2">
@@ -797,32 +810,32 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="8">
-        <f>(A6*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="8"/>
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7"/>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <f>((E7*G7*F7)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="2">
@@ -838,18 +851,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="8">
-        <f>(A7*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="8"/>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7"/>
       <c r="M7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7" s="3"/>
@@ -858,13 +871,13 @@
         <v>24.652026220590233</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <f>((E8*G8*F8)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="2">
@@ -880,30 +893,30 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="8">
-        <f>(A8*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="8"/>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7"/>
       <c r="M8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <f>((E9*G9*F9)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9" s="2">
@@ -919,30 +932,30 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="8">
-        <f>(A9*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="8"/>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="7"/>
       <c r="M9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <f>((E10*G10*F10)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="2">
@@ -958,30 +971,30 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="8">
-        <f>(A10*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="8"/>
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="M10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B11" s="2">
-        <f>((E11*G11*F11)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11" s="2">
@@ -997,30 +1010,30 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="8">
-        <f>(A11*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="8"/>
+      <c r="J11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="7"/>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B12" s="2">
-        <f>((E12*G12*F12)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="2">
@@ -1036,30 +1049,30 @@
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="8">
-        <f>(A12*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="8"/>
+      <c r="J12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="7"/>
       <c r="M12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <f>((E13*G13*F13)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="2">
@@ -1075,30 +1088,30 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="8">
-        <f>(A13*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="8"/>
+      <c r="J13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7"/>
       <c r="M13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B14" s="2">
-        <f>((E14*G14*F14)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="2">
@@ -1114,30 +1127,30 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="8">
-        <f>(A14*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="8"/>
+      <c r="J14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="7"/>
       <c r="M14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B15" s="2">
-        <f>((E15*G15*F15)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="2">
@@ -1153,30 +1166,30 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="8">
-        <f>(A15*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="8"/>
+      <c r="J15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="M15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B16" s="2">
-        <f>((E16*G16*F16)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="2">
@@ -1192,18 +1205,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="8">
-        <f>(A16*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="8"/>
+      <c r="J16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7"/>
       <c r="M16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="3"/>
@@ -1211,11 +1224,11 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <f>((E17*G17*F17)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17" s="2">
@@ -1231,18 +1244,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="8">
-        <f>(A17*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="8"/>
+      <c r="J17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="M17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N17" s="3"/>
@@ -1250,11 +1263,11 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B18" s="2">
-        <f>((E18*G18*F18)/860)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C18" s="2">
@@ -1270,51 +1283,51 @@
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="8">
-        <f>(A18*24)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="8"/>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="7"/>
       <c r="M18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1347,14 +1360,14 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1367,7 +1380,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,1053 +1394,1053 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <f>C2*D2</f>
         <v>0.24</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>12</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <f>B2/1000</f>
         <v>1.2E-2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>20</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>E2*A2</f>
         <v>3.3600000000000005E-2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>F2*30</f>
         <v>1.0080000000000002</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>(1 - G3/G2)*100</f>
         <v>60.000000000000007</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f t="shared" ref="A3:A17" si="0">C3*D3</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f t="shared" ref="C3:C17" si="1">B3/1000</f>
         <v>1.2E-2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F17" si="2">E3*A3</f>
         <v>1.3440000000000002E-2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>F3*30</f>
         <v>0.40320000000000006</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" ref="G3:G17" si="3">F4*30</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="F4" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G17" si="3">F4*30</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
